--- a/template.xlsx
+++ b/template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\MyGit\electron-excel-analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5F608-0485-433B-800D-08F927605DBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13100"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>姓名</t>
   </si>
@@ -129,19 +132,20 @@
   </si>
   <si>
     <t>密码</t>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,357 +192,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -574,255 +249,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -853,63 +286,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔 14" xfId="1"/>
-    <cellStyle name="常规 16 3" xfId="2"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
-    <cellStyle name="货币" xfId="9" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="10" builtinId="37"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="13" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="14" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="15" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16" builtinId="44"/>
-    <cellStyle name="计算" xfId="17" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29"/>
-    <cellStyle name="适中" xfId="19" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="20" builtinId="46"/>
-    <cellStyle name="好" xfId="21" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="22" builtinId="30"/>
-    <cellStyle name="汇总" xfId="23" builtinId="25"/>
-    <cellStyle name="差" xfId="24" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="25" builtinId="23"/>
-    <cellStyle name="输出" xfId="26" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="27" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="29" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="30" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="31" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="33" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
-    <cellStyle name="标题" xfId="35" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
-    <cellStyle name="注释" xfId="39" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
+    <cellStyle name="常规 16 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="千位分隔 14" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1167,128 +556,128 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="44" spans="1:35">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="48">
       <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:35">
+    <row r="2" spans="1:35" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1824,8 +1213,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13100"/>
+    <workbookView windowWidth="28000" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
-  <si>
-    <t>序号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+  <si>
+    <t>身份证</t>
   </si>
   <si>
     <t>姓名</t>
@@ -29,52 +29,6 @@
     <t>标准基本工资</t>
   </si>
   <si>
-    <t>基本工资调整</t>
-  </si>
-  <si>
-    <t>标准绩效工资</t>
-  </si>
-  <si>
-    <t>绩效工资调整</t>
-  </si>
-  <si>
-    <t>奖金</t>
-  </si>
-  <si>
-    <t>餐贴或其它</t>
-  </si>
-  <si>
-    <t>税前应发小计</t>
-  </si>
-  <si>
-    <t>企业年金
-(税前)</t>
-  </si>
-  <si>
-    <t>病假扣款</t>
-  </si>
-  <si>
-    <t>事假扣款</t>
-  </si>
-  <si>
-    <t>养老金</t>
-  </si>
-  <si>
-    <t>医疗保险</t>
-  </si>
-  <si>
-    <t>失业保险</t>
-  </si>
-  <si>
-    <t>住房公积金</t>
-  </si>
-  <si>
-    <t>补充公积金</t>
-  </si>
-  <si>
-    <t>税前代扣小计</t>
-  </si>
-  <si>
     <t>过税</t>
   </si>
   <si>
@@ -129,6 +83,9 @@
   </si>
   <si>
     <t>密码</t>
+  </si>
+  <si>
+    <t>210203199211155273</t>
   </si>
 </sst>
 </file>
@@ -136,12 +93,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,12 +109,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="宋体-简"/>
       <charset val="134"/>
     </font>
@@ -195,41 +146,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,8 +184,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -250,45 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,43 +280,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,12 +316,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,151 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,8 +529,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,25 +575,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +606,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -648,183 +623,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,30 +784,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔 14" xfId="1"/>
-    <cellStyle name="常规 16 3" xfId="2"/>
+    <cellStyle name="常规 16 3" xfId="1"/>
+    <cellStyle name="千位分隔 14" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -1173,15 +1124,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="39.7321428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="44" spans="1:35">
+    <row r="1" s="1" customFormat="1" ht="44" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1212,85 +1166,40 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:20">
+      <c r="A2" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:35">
-      <c r="A2" s="2">
-        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1347,55 +1256,10 @@
         <v>100</v>
       </c>
       <c r="T2" s="2">
-        <v>100</v>
-      </c>
-      <c r="U2" s="2">
-        <v>100</v>
-      </c>
-      <c r="V2" s="2">
-        <v>100</v>
-      </c>
-      <c r="W2" s="2">
-        <v>100</v>
-      </c>
-      <c r="X2" s="2">
-        <v>100</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1454,55 +1318,10 @@
         <v>100</v>
       </c>
       <c r="T3" s="2">
-        <v>100</v>
-      </c>
-      <c r="U3" s="2">
-        <v>100</v>
-      </c>
-      <c r="V3" s="2">
-        <v>100</v>
-      </c>
-      <c r="W3" s="2">
-        <v>100</v>
-      </c>
-      <c r="X3" s="2">
-        <v>100</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI3" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1561,55 +1380,10 @@
         <v>100</v>
       </c>
       <c r="T4" s="2">
-        <v>100</v>
-      </c>
-      <c r="U4" s="2">
-        <v>100</v>
-      </c>
-      <c r="V4" s="2">
-        <v>100</v>
-      </c>
-      <c r="W4" s="2">
-        <v>100</v>
-      </c>
-      <c r="X4" s="2">
-        <v>100</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI4" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1668,55 +1442,10 @@
         <v>100</v>
       </c>
       <c r="T5" s="2">
-        <v>100</v>
-      </c>
-      <c r="U5" s="2">
-        <v>100</v>
-      </c>
-      <c r="V5" s="2">
-        <v>100</v>
-      </c>
-      <c r="W5" s="2">
-        <v>100</v>
-      </c>
-      <c r="X5" s="2">
-        <v>100</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI5" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1775,51 +1504,6 @@
         <v>100</v>
       </c>
       <c r="T6" s="2">
-        <v>100</v>
-      </c>
-      <c r="U6" s="2">
-        <v>100</v>
-      </c>
-      <c r="V6" s="2">
-        <v>100</v>
-      </c>
-      <c r="W6" s="2">
-        <v>100</v>
-      </c>
-      <c r="X6" s="2">
-        <v>100</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI6" s="2">
         <v>123</v>
       </c>
     </row>
